--- a/resources/views/laporan-absensi-karyawan-log/format_laporan_rekap_absensi_karyawan_log.xlsx
+++ b/resources/views/laporan-absensi-karyawan-log/format_laporan_rekap_absensi_karyawan_log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muslimlife/Sites/localhost/app_simrs_absensi_finger/resources/views/laporan-absensi-karyawan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muslimlife/Sites/localhost/app_simrs_absensi_finger/resources/views/laporan-absensi-karyawan-log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377A1A3E-DCC8-504B-A901-D6B23C1E4F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87D0499-58DF-E542-A31C-BF7C2ECAF046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>No</t>
   </si>
@@ -28,32 +28,14 @@
     <t>Nama</t>
   </si>
   <si>
-    <t>Total Kerja</t>
-  </si>
-  <si>
-    <t>Selisih</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>Total hari Kerja</t>
-  </si>
-  <si>
-    <t>Total Jam Kerja</t>
-  </si>
-  <si>
-    <t>Libur Kerja :</t>
-  </si>
-  <si>
-    <t>Libur Hari Nasional :</t>
+    <t>Type Jadwal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -99,14 +81,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,18 +112,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF39791"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7D44D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA7A7A7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -274,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -282,21 +246,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -309,12 +264,6 @@
     <xf numFmtId="49" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -332,45 +281,36 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -687,489 +627,262 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL11"/>
+  <dimension ref="A1:AK8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:AH11"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="9" customWidth="1"/>
-    <col min="3" max="3" width="3.1640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="10" customWidth="1"/>
-    <col min="5" max="31" width="9.83203125" style="7" customWidth="1"/>
-    <col min="32" max="32" width="9.83203125" style="8" customWidth="1"/>
-    <col min="33" max="33" width="15.83203125" style="8" customWidth="1"/>
-    <col min="34" max="34" width="15" style="8" customWidth="1"/>
-    <col min="35" max="38" width="20.83203125" style="8"/>
-    <col min="39" max="16384" width="20.83203125" style="2"/>
+    <col min="1" max="1" width="6.83203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="3.1640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="7" customWidth="1"/>
+    <col min="5" max="32" width="9.83203125" style="6" customWidth="1"/>
+    <col min="33" max="33" width="15.83203125" style="6" customWidth="1"/>
+    <col min="34" max="37" width="20.83203125" style="6"/>
+    <col min="38" max="16384" width="20.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="2" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
     </row>
-    <row r="2" spans="1:38" ht="24" x14ac:dyDescent="0.2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
+    <row r="2" spans="1:33" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
     </row>
-    <row r="3" spans="1:38" ht="24" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
+    <row r="3" spans="1:33" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-    </row>
-    <row r="5" spans="1:38" ht="24" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="26"/>
-      <c r="AE5" s="26"/>
-      <c r="AF5" s="26"/>
-      <c r="AG5" s="26"/>
-      <c r="AH5" s="26"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
-    </row>
-    <row r="6" spans="1:38" ht="20" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
-    </row>
-    <row r="7" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
+    <row r="4" spans="1:33" s="2" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="31" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="AH7" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
-      <c r="AK7" s="2"/>
-      <c r="AL7" s="2"/>
     </row>
-    <row r="8" spans="1:38" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="32"/>
-      <c r="AH8" s="32"/>
+    <row r="5" spans="1:33" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="19"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="21"/>
     </row>
-    <row r="9" spans="1:38" ht="20" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
-      <c r="AG9" s="15"/>
-      <c r="AH9" s="15"/>
+    <row r="6" spans="1:33" ht="20" x14ac:dyDescent="0.2">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="22"/>
     </row>
-    <row r="10" spans="1:38" ht="20" x14ac:dyDescent="0.2">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="33"/>
-      <c r="AD10" s="33"/>
-      <c r="AE10" s="33"/>
-      <c r="AF10" s="33"/>
-      <c r="AG10" s="33"/>
-      <c r="AH10" s="33"/>
+    <row r="7" spans="1:33" ht="20" x14ac:dyDescent="0.2">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="24"/>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="24"/>
+      <c r="AF7" s="24"/>
+      <c r="AG7" s="24"/>
     </row>
-    <row r="11" spans="1:38" ht="20" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="34"/>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="34"/>
-      <c r="AH11" s="34"/>
+    <row r="8" spans="1:33" ht="20" x14ac:dyDescent="0.2">
+      <c r="A8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="26"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="16">
-    <mergeCell ref="A2:AH2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="AG7:AG8"/>
-    <mergeCell ref="AH7:AH8"/>
-    <mergeCell ref="A9:AH9"/>
-    <mergeCell ref="B7:D8"/>
-    <mergeCell ref="B11:AH11"/>
-    <mergeCell ref="A10:AH10"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J4:AH4"/>
-    <mergeCell ref="J5:AH5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A6:AG6"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="B8:AG8"/>
+    <mergeCell ref="A7:AG7"/>
+    <mergeCell ref="A2:AG2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="AG4:AG5"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
